--- a/src/data/profiles/xlsx/bluff/profile 21-13 graph.xlsx
+++ b/src/data/profiles/xlsx/bluff/profile 21-13 graph.xlsx
@@ -1566,11 +1566,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="6702836"/>
-        <c:axId val="72898244"/>
+        <c:axId val="34606730"/>
+        <c:axId val="8023087"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="6702836"/>
+        <c:axId val="34606730"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1605,12 +1605,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72898244"/>
+        <c:crossAx val="8023087"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72898244"/>
+        <c:axId val="8023087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1654,7 +1654,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6702836"/>
+        <c:crossAx val="34606730"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
